--- a/output/Sanirajak/k_2/clusters_data.xlsx
+++ b/output/Sanirajak/k_2/clusters_data.xlsx
@@ -20,6 +20,252 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
     <t>401</t>
   </si>
   <si>
@@ -65,9 +311,6 @@
     <t>254</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>282</t>
   </si>
   <si>
@@ -171,249 +414,6 @@
   </si>
   <si>
     <t>405</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>141</t>
   </si>
 </sst>
 </file>
@@ -833,13 +833,13 @@
         <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="s">
         <v>24</v>
@@ -881,31 +881,31 @@
         <v>36</v>
       </c>
       <c r="AM2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>16</v>
       </c>
       <c r="AV2" t="s">
         <v>45</v>
@@ -929,7 +929,97 @@
         <v>51</v>
       </c>
       <c r="BC2" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:85">
@@ -937,256 +1027,166 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="Y3" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="Z3" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="AA3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AB3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AE3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AH3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AI3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="AJ3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="AK3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="AM3" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="AP3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AQ3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AR3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AS3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AT3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AU3" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AW3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="AX3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="AY3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="AZ3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="BA3" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="BB3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="BC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK3" t="s">
         <v>110</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>118</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
